--- a/Notes/Misc/MAXCOV_methods_precision.xlsx
+++ b/Notes/Misc/MAXCOV_methods_precision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28340" windowHeight="17460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28340" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>corrent_pct</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>CONVEX HULL FROM DELAUNAY TRIANGLES</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>The most unprecise identification happens when the optimal triangle has a small inradius</t>
   </si>
 </sst>
 </file>
@@ -435,11 +441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112016568"/>
-        <c:axId val="-2086794136"/>
+        <c:axId val="-2097980024"/>
+        <c:axId val="-2097916392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112016568"/>
+        <c:axId val="-2097980024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -449,7 +455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2086794136"/>
+        <c:crossAx val="-2097916392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -457,7 +463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2086794136"/>
+        <c:axId val="-2097916392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -469,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112016568"/>
+        <c:crossAx val="-2097980024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -753,11 +759,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2109699992"/>
-        <c:axId val="-2100597896"/>
+        <c:axId val="-2098994712"/>
+        <c:axId val="-2106828728"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2109699992"/>
+        <c:axId val="-2098994712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,7 +773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100597896"/>
+        <c:crossAx val="-2106828728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -775,7 +781,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100597896"/>
+        <c:axId val="-2106828728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -786,7 +792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2109699992"/>
+        <c:crossAx val="-2098994712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1070,11 +1076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2099940984"/>
-        <c:axId val="-2100037176"/>
+        <c:axId val="-2098717448"/>
+        <c:axId val="-2098522632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2099940984"/>
+        <c:axId val="-2098717448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100037176"/>
+        <c:crossAx val="-2098522632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1092,7 +1098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100037176"/>
+        <c:axId val="-2098522632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1103,7 +1109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2099940984"/>
+        <c:crossAx val="-2098717448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1544,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1885,6 +1891,14 @@
       </c>
       <c r="G20" s="2">
         <v>0.58328999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2174,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>

--- a/Notes/Misc/MAXCOV_methods_precision.xlsx
+++ b/Notes/Misc/MAXCOV_methods_precision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28340" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="8220" yWindow="0" windowWidth="20120" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -153,10 +153,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -441,11 +443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2097980024"/>
-        <c:axId val="-2097916392"/>
+        <c:axId val="-2067131192"/>
+        <c:axId val="-2070469368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2097980024"/>
+        <c:axId val="-2067131192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -455,7 +457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097916392"/>
+        <c:crossAx val="-2070469368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -463,7 +465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2097916392"/>
+        <c:axId val="-2070469368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -475,7 +477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097980024"/>
+        <c:crossAx val="-2067131192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -759,11 +761,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2098994712"/>
-        <c:axId val="-2106828728"/>
+        <c:axId val="-2071052392"/>
+        <c:axId val="-2071049416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098994712"/>
+        <c:axId val="-2071052392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -773,7 +775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2106828728"/>
+        <c:crossAx val="-2071049416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -781,7 +783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2106828728"/>
+        <c:axId val="-2071049416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098994712"/>
+        <c:crossAx val="-2071052392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1076,11 +1078,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2098717448"/>
-        <c:axId val="-2098522632"/>
+        <c:axId val="-2071018200"/>
+        <c:axId val="-2071015224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2098717448"/>
+        <c:axId val="-2071018200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1090,7 +1092,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098522632"/>
+        <c:crossAx val="-2071015224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1098,7 +1100,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2098522632"/>
+        <c:axId val="-2071015224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1109,7 +1111,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2098717448"/>
+        <c:crossAx val="-2071018200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1548,10 +1550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1621,22 +1623,22 @@
       <c r="A9">
         <v>1</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>0.25</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>0.95499999999999996</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>1.2021E-2</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>2.879E-3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.80220999999999998</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.81474000000000002</v>
       </c>
     </row>
@@ -1644,22 +1646,22 @@
       <c r="A10">
         <v>2</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>0.16667000000000001</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>0.88500000000000001</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="3">
         <v>7.3206999999999994E-2</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>2.2925000000000001E-2</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="3">
         <v>0.45783000000000001</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>0.73353000000000002</v>
       </c>
     </row>
@@ -1667,22 +1669,22 @@
       <c r="A11">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>0.125</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>0.73499999999999999</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.15776000000000001</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
         <v>5.5780999999999997E-2</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="3">
         <v>0.47101999999999999</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>0.64244999999999997</v>
       </c>
     </row>
@@ -1690,22 +1692,22 @@
       <c r="A12">
         <v>4</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>0.1</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="3">
         <v>0.67</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.18647</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>5.1507999999999998E-2</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.42957000000000001</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.63121000000000005</v>
       </c>
     </row>
@@ -1713,22 +1715,22 @@
       <c r="A13">
         <v>5</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>8.3333000000000004E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="3">
         <v>0.58499999999999996</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="3">
         <v>0.19955000000000001</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
         <v>5.9693999999999997E-2</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="3">
         <v>0.64903999999999995</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>0.59240999999999999</v>
       </c>
     </row>
@@ -1736,22 +1738,22 @@
       <c r="A14">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>7.1429000000000006E-2</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="3">
         <v>0.58499999999999996</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="3">
         <v>0.16728999999999999</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="3">
         <v>5.0688999999999998E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="3">
         <v>0.54635</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>0.60075000000000001</v>
       </c>
     </row>
@@ -1759,22 +1761,22 @@
       <c r="A15">
         <v>7</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>6.25E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>0.57499999999999996</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>0.19713</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="3">
         <v>5.6253999999999998E-2</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="3">
         <v>0.64390999999999998</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>0.60414999999999996</v>
       </c>
     </row>
@@ -1782,22 +1784,22 @@
       <c r="A16">
         <v>8</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>5.5556000000000001E-2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>0.505</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>0.19089</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="3">
         <v>5.0651000000000002E-2</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="3">
         <v>0.45624999999999999</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>0.55998999999999999</v>
       </c>
     </row>
@@ -1805,22 +1807,22 @@
       <c r="A17">
         <v>9</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>0.05</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>0.52500000000000002</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="3">
         <v>0.129</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="3">
         <v>4.8161000000000002E-2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="3">
         <v>0.47193000000000002</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>0.55886999999999998</v>
       </c>
     </row>
@@ -1828,22 +1830,22 @@
       <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>4.5455000000000002E-2</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>0.14831</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="3">
         <v>4.0856000000000003E-2</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="3">
         <v>0.48966999999999999</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>0.55415999999999999</v>
       </c>
     </row>
@@ -1851,22 +1853,22 @@
       <c r="A19">
         <v>11</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>4.5455000000000002E-2</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>0.44500000000000001</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="3">
         <v>0.19156999999999999</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="3">
         <v>4.6622999999999998E-2</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="3">
         <v>0.65686999999999995</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>0.57291000000000003</v>
       </c>
     </row>
@@ -1874,22 +1876,22 @@
       <c r="A20" s="2">
         <v>12</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>4.5455000000000002E-2</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>0.44</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>0.17921000000000001</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>4.5400999999999997E-2</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>0.57562000000000002</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>0.58328999999999998</v>
       </c>
     </row>
@@ -1936,19 +1938,19 @@
       <c r="A28">
         <v>1</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>0.19398000000000001</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <v>8.0647999999999997E-2</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <v>1.9564999999999999</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>1.2569999999999999</v>
       </c>
     </row>
@@ -1956,19 +1958,19 @@
       <c r="A29">
         <v>2</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>0.72499999999999998</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>0.44039</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <v>0.10223</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <v>2.0566</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>1.3206</v>
       </c>
     </row>
@@ -1976,19 +1978,19 @@
       <c r="A30">
         <v>3</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="3">
         <v>0.78500000000000003</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>0.27434999999999998</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <v>8.9247999999999994E-2</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="3">
         <v>1.7491000000000001</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>1.4161999999999999</v>
       </c>
     </row>
@@ -1996,19 +1998,19 @@
       <c r="A31">
         <v>4</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>0.69499999999999995</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>0.25829999999999997</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="3">
         <v>5.2552000000000001E-2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="3">
         <v>1.5130999999999999</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>0.90929000000000004</v>
       </c>
     </row>
@@ -2016,19 +2018,19 @@
       <c r="A32">
         <v>5</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>0.74</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>0.32801999999999998</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="3">
         <v>5.1980999999999999E-2</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="3">
         <v>2.2999000000000001</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>0.90139999999999998</v>
       </c>
     </row>
@@ -2036,19 +2038,19 @@
       <c r="A33">
         <v>6</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>0.69</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>0.35553000000000001</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="3">
         <v>4.7183000000000003E-2</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="3">
         <v>2.2259000000000002</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="3">
         <v>0.91708999999999996</v>
       </c>
     </row>
@@ -2056,19 +2058,19 @@
       <c r="A34">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>0.71</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>0.33274999999999999</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="3">
         <v>3.7525999999999997E-2</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="3">
         <v>2.2885</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="3">
         <v>0.63556000000000001</v>
       </c>
     </row>
@@ -2076,19 +2078,19 @@
       <c r="A35">
         <v>8</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>0.67500000000000004</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>0.33877000000000002</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="3">
         <v>3.8698999999999997E-2</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="3">
         <v>1.861</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>0.90493999999999997</v>
       </c>
     </row>
@@ -2096,19 +2098,19 @@
       <c r="A36">
         <v>9</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>0.66500000000000004</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>0.23674000000000001</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="3">
         <v>2.8389000000000001E-2</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="3">
         <v>2.0143</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="3">
         <v>0.80217000000000005</v>
       </c>
     </row>
@@ -2116,19 +2118,19 @@
       <c r="A37">
         <v>10</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="3">
         <v>0.71</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="3">
         <v>0.21790000000000001</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="3">
         <v>3.0651999999999999E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="3">
         <v>1.4235</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="3">
         <v>0.68696999999999997</v>
       </c>
     </row>
@@ -2136,19 +2138,19 @@
       <c r="A38">
         <v>11</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="3">
         <v>0.60499999999999998</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="3">
         <v>0.20039999999999999</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="3">
         <v>2.6505999999999998E-2</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="3">
         <v>0.96228000000000002</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="3">
         <v>0.86694000000000004</v>
       </c>
     </row>
@@ -2157,21 +2159,24 @@
         <v>12</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2">
+      <c r="C39" s="4">
         <v>0.67</v>
       </c>
-      <c r="D39" s="2">
+      <c r="D39" s="4">
         <v>0.16758999999999999</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="4">
         <v>2.7014E-2</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F39" s="4">
         <v>0.83682000000000001</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="4">
         <v>0.78578000000000003</v>
       </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="C40" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Notes/Misc/MAXCOV_methods_precision.xlsx
+++ b/Notes/Misc/MAXCOV_methods_precision.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22624"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8220" yWindow="0" windowWidth="20120" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="8700" yWindow="0" windowWidth="20120" windowHeight="17460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>corrent_pct</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>The most unprecise identification happens when the optimal triangle has a small inradius</t>
+  </si>
+  <si>
+    <t>MAX WELL (well5_test)</t>
   </si>
 </sst>
 </file>
@@ -130,8 +133,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -160,7 +173,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -171,6 +184,11 @@
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -181,6 +199,11 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -433,6 +456,103 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX WELL (well5_test)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.825</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.685</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -443,11 +563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2067131192"/>
-        <c:axId val="-2070469368"/>
+        <c:axId val="2092984536"/>
+        <c:axId val="2092987512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2067131192"/>
+        <c:axId val="2092984536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -457,7 +577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2070469368"/>
+        <c:crossAx val="2092987512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -465,7 +585,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2070469368"/>
+        <c:axId val="2092987512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -477,7 +597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067131192"/>
+        <c:crossAx val="2092984536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -751,6 +871,103 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX WELL (well5_test)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$17:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$17:$D$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>0.46728</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34729</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20894</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12952</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26622</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.10982</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -761,11 +978,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071052392"/>
-        <c:axId val="-2071049416"/>
+        <c:axId val="2089622808"/>
+        <c:axId val="2089625784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071052392"/>
+        <c:axId val="2089622808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -775,7 +992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071049416"/>
+        <c:crossAx val="2089625784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -783,7 +1000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071049416"/>
+        <c:axId val="2089625784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,7 +1011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071052392"/>
+        <c:crossAx val="2089622808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1068,6 +1285,103 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MAX WELL (well5_test)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet2!$A$31:$A$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$31:$D$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="2">
+                  <c:v>0.39086</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95323</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3414</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.3061</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79432</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1957</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.76229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1078,11 +1392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2071018200"/>
-        <c:axId val="-2071015224"/>
+        <c:axId val="2089642408"/>
+        <c:axId val="2089645384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2071018200"/>
+        <c:axId val="2089642408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1092,7 +1406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071015224"/>
+        <c:crossAx val="2089645384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1100,7 +1414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2071015224"/>
+        <c:axId val="2089645384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1111,7 +1425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2071018200"/>
+        <c:crossAx val="2089642408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1200,13 +1514,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>82550</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1550,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2178,6 +2492,246 @@
     <row r="40" spans="1:7">
       <c r="C40" s="3"/>
     </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.46727999999999997</v>
+      </c>
+      <c r="E47" s="3">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0.39085999999999999</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.79776999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.34728999999999999</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5.4635000000000003E-2</v>
+      </c>
+      <c r="F48" s="3">
+        <v>0.95323000000000002</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0.62194000000000005</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.71</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.20893999999999999</v>
+      </c>
+      <c r="E49" s="3">
+        <v>3.8719000000000003E-2</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0.65752999999999995</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0.56361000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.77</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.18012</v>
+      </c>
+      <c r="E50" s="3">
+        <v>3.7214999999999998E-2</v>
+      </c>
+      <c r="F50" s="3">
+        <v>1.3413999999999999</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0.88653000000000004</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0.19289000000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <v>3.7218000000000001E-2</v>
+      </c>
+      <c r="F51" s="3">
+        <v>0.65230999999999995</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0.86726999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D52" s="3">
+        <v>0.12952</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2.8771000000000001E-2</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1.3061</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0.81052000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="D53" s="3">
+        <v>0.26622000000000001</v>
+      </c>
+      <c r="E53" s="3">
+        <v>4.4107E-2</v>
+      </c>
+      <c r="F53" s="3">
+        <v>0.79432000000000003</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0.91073999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>10</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="D54" s="3">
+        <v>0.10982</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2.8198999999999998E-2</v>
+      </c>
+      <c r="F54" s="3">
+        <v>1.1957</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0.83281000000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.72</v>
+      </c>
+      <c r="D55" s="3">
+        <v>0.19786000000000001</v>
+      </c>
+      <c r="E55" s="3">
+        <v>3.4680000000000002E-2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>0.76229000000000002</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1.0015000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="4">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.17168</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2.8459000000000002E-2</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1.2175</v>
+      </c>
+      <c r="G56" s="4">
+        <v>0.91574999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2191,10 +2745,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2202,13 +2756,13 @@
     <col min="2" max="2" width="22.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="str">
         <f>Sheet1!C8</f>
         <v>corrent_pct</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="B2" t="str">
         <f>Sheet1!$B$6</f>
         <v>DELAUNAY TRIANGLES</v>
@@ -2217,8 +2771,12 @@
         <f>Sheet1!$B$25</f>
         <v>CONVEX HULL FROM DELAUNAY TRIANGLES</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" t="str">
+        <f>Sheet1!$B$42</f>
+        <v>MAX WELL (well5_test)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2231,7 +2789,7 @@
         <v>0.69499999999999995</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2244,7 +2802,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2256,8 +2814,12 @@
         <f>Sheet1!C30</f>
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <f>Sheet1!C47</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2269,8 +2831,12 @@
         <f>Sheet1!C31</f>
         <v>0.69499999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6">
+        <f>Sheet1!C48</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2282,8 +2848,12 @@
         <f>Sheet1!C32</f>
         <v>0.74</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7">
+        <f>Sheet1!C49</f>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2295,8 +2865,12 @@
         <f>Sheet1!C33</f>
         <v>0.69</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8">
+        <f>Sheet1!C50</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2308,8 +2882,12 @@
         <f>Sheet1!C34</f>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9">
+        <f>Sheet1!C51</f>
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2321,8 +2899,12 @@
         <f>Sheet1!C35</f>
         <v>0.67500000000000004</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <f>Sheet1!C52</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2334,8 +2916,12 @@
         <f>Sheet1!C36</f>
         <v>0.66500000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11">
+        <f>Sheet1!C53</f>
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2347,8 +2933,12 @@
         <f>Sheet1!C37</f>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12">
+        <f>Sheet1!C54</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2360,14 +2950,18 @@
         <f>Sheet1!C38</f>
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D13">
+        <f>Sheet1!C55</f>
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="str">
         <f>Sheet1!D8</f>
         <v>max_error_share</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="B16" t="str">
         <f>Sheet1!$B$6</f>
         <v>DELAUNAY TRIANGLES</v>
@@ -2376,8 +2970,12 @@
         <f>Sheet1!$B$25</f>
         <v>CONVEX HULL FROM DELAUNAY TRIANGLES</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="str">
+        <f>Sheet1!$B$42</f>
+        <v>MAX WELL (well5_test)</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>1</v>
       </c>
@@ -2390,7 +2988,7 @@
         <v>0.19398000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>2</v>
       </c>
@@ -2403,7 +3001,7 @@
         <v>0.44039</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>3</v>
       </c>
@@ -2415,8 +3013,12 @@
         <f>Sheet1!D30</f>
         <v>0.27434999999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <f>Sheet1!D47</f>
+        <v>0.46727999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
         <v>4</v>
       </c>
@@ -2428,8 +3030,12 @@
         <f>Sheet1!D31</f>
         <v>0.25829999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20">
+        <f>Sheet1!D48</f>
+        <v>0.34728999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21">
         <v>5</v>
       </c>
@@ -2441,8 +3047,12 @@
         <f>Sheet1!D32</f>
         <v>0.32801999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21">
+        <f>Sheet1!D49</f>
+        <v>0.20893999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22">
         <v>6</v>
       </c>
@@ -2454,8 +3064,12 @@
         <f>Sheet1!D33</f>
         <v>0.35553000000000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22">
+        <f>Sheet1!D50</f>
+        <v>0.18012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23">
         <v>7</v>
       </c>
@@ -2467,8 +3081,12 @@
         <f>Sheet1!D34</f>
         <v>0.33274999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23">
+        <f>Sheet1!D51</f>
+        <v>0.19289000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>8</v>
       </c>
@@ -2480,8 +3098,12 @@
         <f>Sheet1!D35</f>
         <v>0.33877000000000002</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24">
+        <f>Sheet1!D52</f>
+        <v>0.12952</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>9</v>
       </c>
@@ -2493,8 +3115,12 @@
         <f>Sheet1!D36</f>
         <v>0.23674000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25">
+        <f>Sheet1!D53</f>
+        <v>0.26622000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>10</v>
       </c>
@@ -2506,8 +3132,12 @@
         <f>Sheet1!D37</f>
         <v>0.21790000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26">
+        <f>Sheet1!D54</f>
+        <v>0.10982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>11</v>
       </c>
@@ -2519,14 +3149,18 @@
         <f>Sheet1!D38</f>
         <v>0.20039999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D27">
+        <f>Sheet1!D55</f>
+        <v>0.19786000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="str">
         <f>Sheet1!F8</f>
         <v>max_error_distance</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:4">
       <c r="B30" t="str">
         <f>Sheet1!$B$6</f>
         <v>DELAUNAY TRIANGLES</v>
@@ -2535,8 +3169,12 @@
         <f>Sheet1!$B$25</f>
         <v>CONVEX HULL FROM DELAUNAY TRIANGLES</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="str">
+        <f>Sheet1!$B$42</f>
+        <v>MAX WELL (well5_test)</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2549,7 +3187,7 @@
         <v>1.9564999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2562,7 +3200,7 @@
         <v>2.0566</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2574,8 +3212,12 @@
         <f>Sheet1!F30</f>
         <v>1.7491000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33">
+        <f>Sheet1!F47</f>
+        <v>0.39085999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34">
         <v>4</v>
       </c>
@@ -2587,8 +3229,12 @@
         <f>Sheet1!F31</f>
         <v>1.5130999999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34">
+        <f>Sheet1!F48</f>
+        <v>0.95323000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>5</v>
       </c>
@@ -2600,8 +3246,12 @@
         <f>Sheet1!F32</f>
         <v>2.2999000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35">
+        <f>Sheet1!F49</f>
+        <v>0.65752999999999995</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36">
         <v>6</v>
       </c>
@@ -2613,8 +3263,12 @@
         <f>Sheet1!F33</f>
         <v>2.2259000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36">
+        <f>Sheet1!F50</f>
+        <v>1.3413999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>7</v>
       </c>
@@ -2626,8 +3280,12 @@
         <f>Sheet1!F34</f>
         <v>2.2885</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <f>Sheet1!F51</f>
+        <v>0.65230999999999995</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>8</v>
       </c>
@@ -2639,8 +3297,12 @@
         <f>Sheet1!F35</f>
         <v>1.861</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <f>Sheet1!F52</f>
+        <v>1.3061</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39">
         <v>9</v>
       </c>
@@ -2652,8 +3314,12 @@
         <f>Sheet1!F36</f>
         <v>2.0143</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="D39">
+        <f>Sheet1!F53</f>
+        <v>0.79432000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>10</v>
       </c>
@@ -2665,8 +3331,12 @@
         <f>Sheet1!F37</f>
         <v>1.4235</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
+      <c r="D40">
+        <f>Sheet1!F54</f>
+        <v>1.1957</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
         <v>11</v>
       </c>
@@ -2677,6 +3347,10 @@
       <c r="C41">
         <f>Sheet1!F38</f>
         <v>0.96228000000000002</v>
+      </c>
+      <c r="D41">
+        <f>Sheet1!F55</f>
+        <v>0.76229000000000002</v>
       </c>
     </row>
   </sheetData>
